--- a/biology/Médecine/Nikolaï_Pirogov/Nikolaï_Pirogov.xlsx
+++ b/biology/Médecine/Nikolaï_Pirogov/Nikolaï_Pirogov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Pirogov</t>
+          <t>Nikolaï_Pirogov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Ivanovitch Pirogov (en russe : Никола́й Ива́нович Пирого́в, né le 25 novembre 1810  à Moscou, mort le 5 décembre 1881 dans la région de Vinnitsa) est un célèbre chirurgien russe, un des fondateurs de la chirurgie militaire, fondateur de la Croix-Rouge russe.
 Fils de fonctionnaire faculté de médecine à 14 ans médecin à 17. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Pirogov</t>
+          <t>Nikolaï_Pirogov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réalisa la première anesthésie (à l'éther) en temps de guerre et utilisa massivement l'immobilisation plâtrée lors du siège de Sébastopol (1854). Il a d'ailleurs lancé le débat sur l'éducation et le travail des femmes, après son expérience de ce siège lors duquel il a beaucoup travaillé avec des femmes comme aides-soignantes, dont la sœur de Griboïedov (Catherine) et celle de Bakounine, dans l'hôpital militaire installé dans l'édifice de l'assemblée de la noblesse de Simféropol.
-Avec sa renommée, on a fait appel à lui pour sauver Giuseppe Garibaldi de la gangrène en 1857[1].
-Il s'est, d'autre part, intéressé à l'éducation en Russie, critiquant les problèmes de pédagogie et soulignant ses enjeux éthiques[2].
+Avec sa renommée, on a fait appel à lui pour sauver Giuseppe Garibaldi de la gangrène en 1857.
+Il s'est, d'autre part, intéressé à l'éducation en Russie, critiquant les problèmes de pédagogie et soulignant ses enjeux éthiques.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Pirogov</t>
+          <t>Nikolaï_Pirogov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée d'État Pirogov a été fondé en 1944 dans la maison de Nikolaï Pirogov, l'Université médicale à Vinnitsa.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Pirogov</t>
+          <t>Nikolaï_Pirogov</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chirurgische Anatomie der Arterienstämme und Fascien. Neu bearbeitet von Julius Szymanowski : Mit 50 Abbildungen nach der Natur gezeichnet von F. Schlater, lithographirt von C. Schmiedel. C. F. Winter, Leipzig / Heidelberg 1860[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chirurgische Anatomie der Arterienstämme und Fascien. Neu bearbeitet von Julius Szymanowski : Mit 50 Abbildungen nach der Natur gezeichnet von F. Schlater, lithographirt von C. Schmiedel. C. F. Winter, Leipzig / Heidelberg 1860
 « Regard sur le statut général de nos universités », Circulaire sur l’administration de l’académie de Kiev, 1861 (en russe : Пирогов, Николай Ивaнович, « Взгляд на общий устав наших университетов », Циркуляр по управлении киевским округом, март 1861, ст. 40-50)
 « Observations de Pirogov sur l’ébauche du Statut des Universités de l’empire russes », Nouvelles de Saint-Pétersbourg, 1862 (en russe : Пирогов, Николай Ивaнович, « Замечания Н. И. Пирогова на проект устава имперских российских университетах », Cакт-Питербурския Ведомости, 5-6 апрель 1862, ст. 339-40, 346).
 La Question des universités, 1863 (en russe : Пирогов, Николай Ивaнович, Университетский вопрос, 1863)
-Les Questions de la Vie, ou Journal d'un vieux médecin, 1881 (titre original : Вопросы жизни. Дневник старого врача)[4],[2]</t>
+Les Questions de la Vie, ou Journal d'un vieux médecin, 1881 (titre original : Вопросы жизни. Дневник старого врача),</t>
         </is>
       </c>
     </row>
